--- a/contacts.xlsx
+++ b/contacts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NextRevol\raviWhatsapp\whatsappBulkMessages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14557D23-E269-4B4C-AA98-347EC43BABFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607C7F16-B5AC-4490-9AB1-6DBED7BD7568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{D8DBE1D7-8D0D-4B5F-BC74-C6C4C3A6CA5B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Candidate Name</t>
   </si>
@@ -53,18 +53,6 @@
     <t>Work Exp</t>
   </si>
   <si>
-    <t>bla bla</t>
-  </si>
-  <si>
-    <t>haha</t>
-  </si>
-  <si>
-    <t>xyz</t>
-  </si>
-  <si>
-    <t>yeye</t>
-  </si>
-  <si>
     <t>heeeeh</t>
   </si>
   <si>
@@ -78,16 +66,60 @@
   </si>
   <si>
     <t>cook</t>
+  </si>
+  <si>
+    <t>x@email.com</t>
+  </si>
+  <si>
+    <t>2 years</t>
+  </si>
+  <si>
+    <t>3 years</t>
+  </si>
+  <si>
+    <t>4 years</t>
+  </si>
+  <si>
+    <t>5 years</t>
+  </si>
+  <si>
+    <t>6 years</t>
+  </si>
+  <si>
+    <t>Usman Fawad</t>
+  </si>
+  <si>
+    <t>Ravi</t>
+  </si>
+  <si>
+    <t>John Snow</t>
+  </si>
+  <si>
+    <t>Martin buber</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -116,14 +148,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -439,14 +476,14 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" style="4" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
   </cols>
@@ -458,7 +495,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -470,45 +507,96 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4">
+        <v>923352839515</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="C3" s="4">
+        <v>923352839515</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="C4" s="4">
+        <v>923352839515</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="C5" s="4">
+        <v>923352839515</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="C6" s="4">
+        <v>923352839515</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{D072A889-3952-4E12-BBF7-972FE3E282B1}"/>
+    <hyperlink ref="D3:D6" r:id="rId2" display="x@email.com" xr:uid="{15696129-1337-4CB3-9853-FEA572AB0BEC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>